--- a/plantillaa.xlsx
+++ b/plantillaa.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kakashi\Desktop\test_maps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Página1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="241">
   <si>
     <t xml:space="preserve">FECHA DE INCRIPCION </t>
   </si>
@@ -156,7 +151,7 @@
     <t>Lambare</t>
   </si>
   <si>
-    <t>Central</t>
+    <t>central</t>
   </si>
   <si>
     <t>Secundario</t>
@@ -252,7 +247,7 @@
     <t>Tobatí</t>
   </si>
   <si>
-    <t>Cordillera</t>
+    <t>cordillera</t>
   </si>
   <si>
     <t xml:space="preserve">Primario </t>
@@ -351,52 +346,190 @@
     <t>1 hijo</t>
   </si>
   <si>
+    <t>(0981) 432681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graciela Beatriz</t>
+  </si>
+  <si>
+    <t>Vargas Aguirre</t>
+  </si>
+  <si>
+    <t>Algodon</t>
+  </si>
+  <si>
+    <t>Ao Poi</t>
+  </si>
+  <si>
+    <t>Vestimenta</t>
+  </si>
+  <si>
+    <t>-25.386774</t>
+  </si>
+  <si>
+    <t>-57.441769</t>
+  </si>
+  <si>
+    <t>Rojas Cañada, Capiatá</t>
+  </si>
+  <si>
+    <t>(021) 900498</t>
+  </si>
+  <si>
+    <t>120.000</t>
+  </si>
+  <si>
+    <t>2 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 hijos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laura Crispina</t>
+  </si>
+  <si>
+    <t>Gimenez Rodriguez</t>
+  </si>
+  <si>
+    <t>Crochet</t>
+  </si>
+  <si>
+    <t>Vestimenta, manteleria</t>
+  </si>
+  <si>
+    <t>-25.461209</t>
+  </si>
+  <si>
+    <t>-57.038098</t>
+  </si>
+  <si>
+    <t>Capitan Flecha Spaini, Piribebuy</t>
+  </si>
+  <si>
+    <t>Piribebuy</t>
+  </si>
+  <si>
+    <t>3 años</t>
+  </si>
+  <si>
+    <t>Soltera</t>
+  </si>
+  <si>
+    <t>(0985) 211-659</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nilda Rosa</t>
+  </si>
+  <si>
+    <t>Ozuna Ayala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textiles </t>
+  </si>
+  <si>
+    <t>Vestiementa, manteleria</t>
+  </si>
+  <si>
+    <t>-27.331075</t>
+  </si>
+  <si>
+    <t>-55.863285</t>
+  </si>
+  <si>
+    <t>Lomas Valentinas, Encarnación</t>
+  </si>
+  <si>
+    <t>Encarnación</t>
+  </si>
+  <si>
+    <t>alto parana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitaria </t>
+  </si>
+  <si>
+    <t>1.300.000</t>
+  </si>
+  <si>
+    <t>6 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hijos </t>
+  </si>
+  <si>
+    <t>(0981) 807.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Towote Marco</t>
+  </si>
+  <si>
+    <t>San Martin Martinez</t>
+  </si>
+  <si>
     <t>Arte Indígena</t>
   </si>
   <si>
     <t>Algodòn</t>
   </si>
   <si>
-    <t>Crochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 hijos </t>
-  </si>
-  <si>
-    <t>(0981) 432681</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Graciela Beatriz</t>
-  </si>
-  <si>
-    <t>Vargas Aguirre</t>
-  </si>
-  <si>
-    <t>Algodon</t>
-  </si>
-  <si>
-    <t>Ao Poi</t>
-  </si>
-  <si>
-    <t>Vestimenta</t>
-  </si>
-  <si>
-    <t>-25.386774</t>
-  </si>
-  <si>
-    <t>-57.441769</t>
-  </si>
-  <si>
-    <t>Rojas Cañada, Capiatá</t>
-  </si>
-  <si>
-    <t>(021) 900498</t>
-  </si>
-  <si>
-    <t>120.000</t>
-  </si>
-  <si>
-    <t>2 años</t>
+    <t>Hilado de Fibras</t>
+  </si>
+  <si>
+    <t>Bolsos, mochilas, pulseras</t>
+  </si>
+  <si>
+    <t>Maka</t>
+  </si>
+  <si>
+    <t>-25.184361</t>
+  </si>
+  <si>
+    <t>-57.534567</t>
+  </si>
+  <si>
+    <t>Corumba Cue-Universo, Mariano Roque Alonso</t>
+  </si>
+  <si>
+    <t>Mariano R. Alonzo</t>
+  </si>
+  <si>
+    <t>250.000</t>
+  </si>
+  <si>
+    <t>30 años</t>
+  </si>
+  <si>
+    <t>0984-288.781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aamalia </t>
+  </si>
+  <si>
+    <t>Vargas de Castillo</t>
+  </si>
+  <si>
+    <t>Cesteria</t>
+  </si>
+  <si>
+    <t>Cantaros, vasijas, Figuras</t>
+  </si>
+  <si>
+    <t>-25.300134</t>
+  </si>
+  <si>
+    <t>-57.066563</t>
+  </si>
+  <si>
+    <t>21 de Julio, Tobatí</t>
+  </si>
+  <si>
+    <t>Tobati</t>
+  </si>
+  <si>
+    <t>Primario</t>
+  </si>
+  <si>
+    <t>(-) 500.000</t>
   </si>
   <si>
     <t>Independiente</t>
@@ -405,144 +538,6 @@
     <t>Casado</t>
   </si>
   <si>
-    <t xml:space="preserve"> Laura Crispina</t>
-  </si>
-  <si>
-    <t>Gimenez Rodriguez</t>
-  </si>
-  <si>
-    <t>Vestimenta, manteleria</t>
-  </si>
-  <si>
-    <t>-25.461209</t>
-  </si>
-  <si>
-    <t>-57.038098</t>
-  </si>
-  <si>
-    <t>Capitan Flecha Spaini, Piribebuy</t>
-  </si>
-  <si>
-    <t>Piribebuy</t>
-  </si>
-  <si>
-    <t>3 años</t>
-  </si>
-  <si>
-    <t>Soltera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textiles </t>
-  </si>
-  <si>
-    <t>Vestiementa, manteleria</t>
-  </si>
-  <si>
-    <t>Encarnación</t>
-  </si>
-  <si>
-    <t>Alto Parana</t>
-  </si>
-  <si>
-    <t>(0985) 211-659</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nilda Rosa</t>
-  </si>
-  <si>
-    <t>Ozuna Ayala</t>
-  </si>
-  <si>
-    <t>-27.331075</t>
-  </si>
-  <si>
-    <t>-55.863285</t>
-  </si>
-  <si>
-    <t>Lomas Valentinas, Encarnación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitaria </t>
-  </si>
-  <si>
-    <t>1.300.000</t>
-  </si>
-  <si>
-    <t>6 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 hijos </t>
-  </si>
-  <si>
-    <t>Hilado de Fibras</t>
-  </si>
-  <si>
-    <t>Bolsos, mochilas, pulseras</t>
-  </si>
-  <si>
-    <t>Mariano R. Alonzo</t>
-  </si>
-  <si>
-    <t>(0981) 807.448</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Towote Marco</t>
-  </si>
-  <si>
-    <t>San Martin Martinez</t>
-  </si>
-  <si>
-    <t>Maka</t>
-  </si>
-  <si>
-    <t>-25.184361</t>
-  </si>
-  <si>
-    <t>-57.534567</t>
-  </si>
-  <si>
-    <t>Corumba Cue-Universo, Mariano Roque Alonso</t>
-  </si>
-  <si>
-    <t>250.000</t>
-  </si>
-  <si>
-    <t>30 años</t>
-  </si>
-  <si>
-    <t>0984-288.781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aamalia </t>
-  </si>
-  <si>
-    <t>Vargas de Castillo</t>
-  </si>
-  <si>
-    <t>Cesteria</t>
-  </si>
-  <si>
-    <t>Cantaros, vasijas, Figuras</t>
-  </si>
-  <si>
-    <t>-25.300134</t>
-  </si>
-  <si>
-    <t>-57.066563</t>
-  </si>
-  <si>
-    <t>21 de Julio, Tobatí</t>
-  </si>
-  <si>
-    <t>Tobati</t>
-  </si>
-  <si>
-    <t>Primario</t>
-  </si>
-  <si>
-    <t>(-) 500.000</t>
-  </si>
-  <si>
     <t>(0971) 539-161</t>
   </si>
   <si>
@@ -570,90 +565,90 @@
     <t>7 años</t>
   </si>
   <si>
+    <t>0982-165.065</t>
+  </si>
+  <si>
     <t>Abel Gustavo</t>
   </si>
   <si>
+    <t>Etcheverry Iglesias</t>
+  </si>
+  <si>
+    <t>Karaguatá</t>
+  </si>
+  <si>
+    <t>Figuras de animales</t>
+  </si>
+  <si>
+    <t>Ayoreo</t>
+  </si>
+  <si>
+    <t>-22.352505</t>
+  </si>
+  <si>
+    <t>-60.028620</t>
+  </si>
+  <si>
+    <t>Avenida Trebol, Filadelfia</t>
+  </si>
+  <si>
+    <t>Filadelfia</t>
+  </si>
+  <si>
+    <t>Campo Loro</t>
+  </si>
+  <si>
+    <t>boqueron</t>
+  </si>
+  <si>
+    <t>3° Curso</t>
+  </si>
+  <si>
+    <t>10 a 20 años</t>
+  </si>
+  <si>
+    <t>Asociación 7 clanes</t>
+  </si>
+  <si>
+    <t>5 hijos</t>
+  </si>
+  <si>
+    <t>Abelina</t>
+  </si>
+  <si>
+    <t>Vinz</t>
+  </si>
+  <si>
+    <t>Karaguata</t>
+  </si>
+  <si>
+    <t>Cestos, bolsos de Karaguata</t>
+  </si>
+  <si>
+    <t>-22.365826</t>
+  </si>
+  <si>
+    <t>-60.032311</t>
+  </si>
+  <si>
+    <t>Centro, Filadelfia</t>
+  </si>
+  <si>
+    <t>Filadelfia - Chaco</t>
+  </si>
+  <si>
     <t>15 años</t>
   </si>
   <si>
-    <t>0982-165.065</t>
-  </si>
-  <si>
-    <t>Etcheverry Iglesias</t>
-  </si>
-  <si>
-    <t>Karaguatá</t>
-  </si>
-  <si>
-    <t>Figuras de animales</t>
-  </si>
-  <si>
-    <t>Ayoreo</t>
-  </si>
-  <si>
-    <t>-22.352505</t>
-  </si>
-  <si>
-    <t>-60.028620</t>
-  </si>
-  <si>
-    <t>Avenida Trebol, Filadelfia</t>
-  </si>
-  <si>
-    <t>Filadelfia</t>
-  </si>
-  <si>
-    <t>Campo Loro</t>
-  </si>
-  <si>
-    <t>Boquerón</t>
-  </si>
-  <si>
-    <t>3° Curso</t>
-  </si>
-  <si>
-    <t>10 a 20 años</t>
-  </si>
-  <si>
-    <t>Asociación 7 clanes</t>
-  </si>
-  <si>
-    <t>5 hijos</t>
-  </si>
-  <si>
-    <t>Abelina</t>
-  </si>
-  <si>
-    <t>Vinz</t>
-  </si>
-  <si>
-    <t>Karaguata</t>
-  </si>
-  <si>
-    <t>Cestos, bolsos de Karaguata</t>
-  </si>
-  <si>
-    <t>-22.365826</t>
-  </si>
-  <si>
-    <t>-60.032311</t>
-  </si>
-  <si>
-    <t>Centro, Filadelfia</t>
-  </si>
-  <si>
-    <t>Filadelfia - Chaco</t>
-  </si>
-  <si>
     <t>OPEN</t>
   </si>
   <si>
+    <t>0984-311.891</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abelina  </t>
   </si>
   <si>
-    <t>0984-311.891</t>
-  </si>
-  <si>
     <t>Yura Chiquejno</t>
   </si>
   <si>
@@ -738,39 +733,21 @@
     <t>Coronel Bogado</t>
   </si>
   <si>
+    <t>itapua</t>
+  </si>
+  <si>
     <t>Universitario</t>
-  </si>
-  <si>
-    <t>(0972) 978-491</t>
-  </si>
-  <si>
-    <t>Ada Denise</t>
-  </si>
-  <si>
-    <t>Rojas Alonzo</t>
-  </si>
-  <si>
-    <t>Salado, Limpio</t>
-  </si>
-  <si>
-    <t>Limpio</t>
-  </si>
-  <si>
-    <t>(0981) 495-450</t>
-  </si>
-  <si>
-    <t>Comision de Arte y Cultura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d\ de\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="d de mmmm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,12 +784,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -829,12 +800,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -843,7 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF70757A"/>
+      <color rgb="FF70757a"/>
       <name val="&quot;Google Sans&quot;"/>
       <family val="2"/>
     </font>
@@ -863,12 +828,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor rgb="FFd8d8d8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -882,22 +847,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -921,180 +886,161 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="49">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,10 +1051,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1146,71 +1092,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1238,7 +1184,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1261,11 +1207,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1274,13 +1220,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1290,7 +1236,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1299,7 +1245,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1308,7 +1254,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1316,10 +1262,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1388,32 +1334,46 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="25.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="45.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="41" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="43" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="42" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="44" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="44" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="42" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="45" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="46" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="47" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="47" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="42" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="48" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="48" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="48" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="78.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="78.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="12">
         <v>40959</v>
       </c>
@@ -1554,44 +1514,44 @@
       <c r="Q2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18" t="s">
+      <c r="S2" s="13"/>
+      <c r="T2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="19">
+      <c r="W2" s="18">
         <v>828797</v>
       </c>
-      <c r="X2" s="19">
+      <c r="X2" s="18">
         <v>7804</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="13" t="s">
         <v>51</v>
       </c>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" ht="20.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="12">
         <v>39561</v>
       </c>
@@ -1609,7 +1569,7 @@
       <c r="G3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="13" t="s">
@@ -1624,53 +1584,53 @@
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="20" t="s">
         <v>59</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="18">
         <v>1181613</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="18">
         <v>1433</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="12">
         <v>40857</v>
       </c>
@@ -1718,42 +1678,42 @@
       <c r="Q4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18" t="s">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="18">
         <v>3299038</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="18">
         <v>7569</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17" t="s">
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="13" t="s">
         <v>51</v>
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="20.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="12">
         <v>39742</v>
       </c>
@@ -1766,7 +1726,7 @@
       <c r="D5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>1963</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -1797,46 +1757,46 @@
       <c r="Q5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>3342994</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="18">
         <v>1666</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="12">
         <v>39717</v>
       </c>
@@ -1849,7 +1809,7 @@
       <c r="D6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>1985</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1880,55 +1840,55 @@
       <c r="Q6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <v>4218822</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="18">
         <v>1597</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="13" t="s">
         <v>109</v>
       </c>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="12">
         <v>40492</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -1941,16 +1901,16 @@
         <v>55</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>40</v>
@@ -1959,61 +1919,61 @@
         <v>40</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="18">
+        <v>3206783</v>
+      </c>
+      <c r="X7" s="18">
+        <v>5805</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="AA7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="AB7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7" s="19">
-        <v>3206783</v>
-      </c>
-      <c r="X7" s="19">
-        <v>5805</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="27">
       <c r="A8" s="12">
         <v>40949</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -2026,16 +1986,16 @@
         <v>55</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>40</v>
@@ -2044,63 +2004,63 @@
         <v>40</v>
       </c>
       <c r="O8" s="13"/>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="18">
+        <v>5134103</v>
+      </c>
+      <c r="X8" s="18">
+        <v>7787</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="AB8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W8" s="19">
-        <v>5134103</v>
-      </c>
-      <c r="X8" s="19">
-        <v>7787</v>
-      </c>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD8" s="17" t="s">
+      <c r="AD8" s="13" t="s">
         <v>93</v>
       </c>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="27">
       <c r="A9" s="12">
         <v>40960</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="33">
+        <v>135</v>
+      </c>
+      <c r="E9" s="18">
         <v>1975</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -2110,19 +2070,19 @@
         <v>34</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>40</v>
@@ -2131,146 +2091,146 @@
         <v>40</v>
       </c>
       <c r="O9" s="13"/>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9" s="18">
+        <v>2948269</v>
+      </c>
+      <c r="X9" s="18">
+        <v>7843</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="AA9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="AB9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="W9" s="19">
-        <v>2948269</v>
-      </c>
-      <c r="X9" s="19">
-        <v>7843</v>
-      </c>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="27">
       <c r="A10" s="12">
         <v>40070</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="33">
+        <v>149</v>
+      </c>
+      <c r="E10" s="18">
         <v>1965</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="U10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="18">
+        <v>943258</v>
+      </c>
+      <c r="X10" s="18">
+        <v>3592</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="AA10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="19">
-        <v>943258</v>
-      </c>
-      <c r="X10" s="19">
-        <v>3592</v>
-      </c>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="17" t="s">
+      <c r="AC10" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AD10" s="17" t="s">
-        <v>113</v>
+      <c r="AD10" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" ht="27" customHeight="1">
-      <c r="A11" s="28">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="27">
+      <c r="A11" s="26">
         <v>44321</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>1952</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -2279,20 +2239,20 @@
       <c r="G11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="29" t="s">
-        <v>167</v>
+      <c r="L11" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>40</v>
@@ -2300,51 +2260,51 @@
       <c r="N11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="26" t="s">
+      <c r="O11" s="27"/>
+      <c r="P11" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="S11" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="T11" s="28">
+        <v>44398</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="W11" s="29">
+        <v>2679240</v>
+      </c>
+      <c r="X11" s="29">
+        <v>13869</v>
+      </c>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="T11" s="34">
-        <v>44398</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" s="20" t="s">
+      <c r="AA11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="W11" s="31">
-        <v>2679240</v>
-      </c>
-      <c r="X11" s="31">
-        <v>13869</v>
-      </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="32" t="s">
+      <c r="AC11" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AA11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB11" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD11" s="32"/>
+      <c r="AD11" s="27"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="27">
       <c r="A12" s="12">
         <v>43194</v>
       </c>
@@ -2370,164 +2330,166 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17" t="s">
+      <c r="T12" s="17"/>
+      <c r="U12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="18">
         <v>5364246</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="18">
         <v>12145</v>
       </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17" t="s">
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AB12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="17" t="s">
+      <c r="AC12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AD12" s="17" t="s">
+      <c r="AD12" s="13" t="s">
         <v>93</v>
       </c>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="29.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5">
       <c r="A13" s="12">
         <v>44105</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="Q13" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="R13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="S13" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="T13" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="U13" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="V13" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="W13" s="18">
+        <v>2218549</v>
+      </c>
+      <c r="X13" s="31">
+        <v>13620</v>
+      </c>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA13" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="W13" s="19">
-        <v>2218549</v>
-      </c>
-      <c r="X13" s="35">
-        <v>13620</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA13" s="36" t="s">
+      <c r="AB13" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="AB13" s="17" t="s">
+      <c r="AC13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="27">
       <c r="A14" s="12">
         <v>40751</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="E14" s="18">
         <v>1976</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>40</v>
@@ -2536,58 +2498,58 @@
         <v>40</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="Q14" s="26" t="s">
+      <c r="R14" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="S14" s="13"/>
+      <c r="T14" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="18" t="s">
+      <c r="U14" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="18">
+        <v>2325313</v>
+      </c>
+      <c r="X14" s="18">
+        <v>6601</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="U14" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="19">
-        <v>2325313</v>
-      </c>
-      <c r="X14" s="19">
-        <v>6601</v>
-      </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA14" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB14" s="17" t="s">
+      <c r="AB14" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AC14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AD14" s="17" t="s">
+      <c r="AD14" s="13" t="s">
         <v>51</v>
       </c>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="27">
       <c r="A15" s="12">
         <v>44105</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>211</v>
@@ -2597,13 +2559,13 @@
         <v>33</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>212</v>
@@ -2615,54 +2577,54 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="R15" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="S15" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="T15" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="U15" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U15" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="W15" s="19">
+      <c r="W15" s="18">
         <v>7415400</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15" s="31">
         <v>13605</v>
       </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA15" s="36" t="s">
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="AB15" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC15" s="17" t="s">
+      <c r="AC15" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AD15" s="17" t="s">
+      <c r="AD15" s="13" t="s">
         <v>218</v>
       </c>
       <c r="AE15" s="15"/>
     </row>
-    <row r="16" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="27">
       <c r="A16" s="12">
         <v>39546</v>
       </c>
@@ -2688,48 +2650,50 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="18" t="s">
+      <c r="S16" s="13"/>
+      <c r="T16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17" t="s">
+      <c r="U16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>2640448</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="18">
         <v>1406</v>
       </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17" t="s">
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AA16" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AB16" s="17" t="s">
+      <c r="AB16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC16" s="17" t="s">
+      <c r="AC16" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AD16" s="17" t="s">
+      <c r="AD16" s="13" t="s">
         <v>109</v>
       </c>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="27">
       <c r="A17" s="12">
         <v>40982</v>
       </c>
@@ -2755,48 +2719,50 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="18" t="s">
+      <c r="S17" s="13"/>
+      <c r="T17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17" t="s">
+      <c r="U17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W17" s="18">
         <v>2349304</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="18">
         <v>7933</v>
       </c>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17" t="s">
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AA17" s="17" t="s">
+      <c r="AA17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AB17" s="17" t="s">
+      <c r="AB17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC17" s="17" t="s">
+      <c r="AC17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AD17" s="13" t="s">
         <v>93</v>
       </c>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="27" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27">
       <c r="A18" s="12">
         <v>42360</v>
       </c>
@@ -2822,64 +2788,56 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="S18" s="17"/>
-      <c r="T18" s="18" t="s">
+      <c r="S18" s="13"/>
+      <c r="T18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17" t="s">
+      <c r="U18" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="19">
+      <c r="V18" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="W18" s="18">
         <v>536768</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="18">
         <v>10499</v>
       </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17" t="s">
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AA18" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB18" s="17" t="s">
+      <c r="AA18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD18" s="17" t="s">
+      <c r="AC18" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>42466</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13" t="s">
-        <v>33</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2889,233 +2847,213 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="S19" s="17"/>
-      <c r="T19" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W19" s="19">
-        <v>612718</v>
-      </c>
-      <c r="X19" s="19">
-        <v>10600</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB19" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="15"/>
     </row>
-    <row r="21" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="21"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="13"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="42"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="15"/>
+      <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="44"/>
+      <c r="T22" s="17"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
+      <c r="AC22" s="15"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="44"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="15"/>
+      <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="44"/>
+      <c r="T24" s="35"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="18"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
+      <c r="AC24" s="15"/>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="45"/>
+      <c r="T25" s="17"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="33"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
@@ -3124,61 +3062,61 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="15"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="13"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
       <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="15"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="47"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
       <c r="V27" s="13"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
@@ -3190,28 +3128,28 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="47"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
       <c r="V28" s="13"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
@@ -3219,18 +3157,18 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="15"/>
+      <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="33"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3239,12 +3177,12 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="47"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="37"/>
       <c r="V29" s="13"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
@@ -3256,104 +3194,71 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
       <c r="V30" s="13"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="13"/>
-      <c r="Z30" s="15"/>
+      <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
     </row>
-    <row r="31" spans="1:31" ht="19.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
       <c r="V31" s="13"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
+      <c r="Z31" s="15"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-    </row>
-    <row r="32" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plantillaa.xlsx
+++ b/plantillaa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="239">
   <si>
     <t xml:space="preserve">FECHA DE INCRIPCION </t>
   </si>
@@ -184,7 +184,7 @@
     <t>Textiles</t>
   </si>
   <si>
-    <t>Algodón</t>
+    <t>Algodon</t>
   </si>
   <si>
     <t>Ao Po'i (tela) - Bordado</t>
@@ -355,7 +355,7 @@
     <t>Vargas Aguirre</t>
   </si>
   <si>
-    <t>Algodon</t>
+    <t>Piedras</t>
   </si>
   <si>
     <t>Ao Poi</t>
@@ -424,7 +424,7 @@
     <t>Ozuna Ayala</t>
   </si>
   <si>
-    <t xml:space="preserve">Textiles </t>
+    <t>Cuero</t>
   </si>
   <si>
     <t>Vestiementa, manteleria</t>
@@ -469,9 +469,6 @@
     <t>Arte Indígena</t>
   </si>
   <si>
-    <t>Algodòn</t>
-  </si>
-  <si>
     <t>Hilado de Fibras</t>
   </si>
   <si>
@@ -574,7 +571,7 @@
     <t>Etcheverry Iglesias</t>
   </si>
   <si>
-    <t>Karaguatá</t>
+    <t>Karaguata</t>
   </si>
   <si>
     <t>Figuras de animales</t>
@@ -617,9 +614,6 @@
   </si>
   <si>
     <t>Vinz</t>
-  </si>
-  <si>
-    <t>Karaguata</t>
   </si>
   <si>
     <t>Cestos, bolsos de Karaguata</t>
@@ -1898,10 +1892,10 @@
         <v>54</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>114</v>
@@ -1983,10 +1977,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>125</v>
@@ -2073,7 +2067,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>125</v>
@@ -2157,35 +2151,35 @@
         <v>150</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="R10" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>45</v>
@@ -2201,10 +2195,10 @@
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA10" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>49</v>
@@ -2222,13 +2216,13 @@
         <v>44321</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="E11" s="22">
         <v>1952</v>
@@ -2246,13 +2240,13 @@
         <v>86</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>40</v>
@@ -2262,16 +2256,16 @@
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="R11" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="S11" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="T11" s="28">
         <v>44398</v>
@@ -2280,7 +2274,7 @@
         <v>77</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W11" s="29">
         <v>2679240</v>
@@ -2290,16 +2284,16 @@
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA11" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AB11" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC11" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="AD11" s="27"/>
       <c r="AE11" s="13"/>
@@ -2309,13 +2303,13 @@
         <v>43194</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
@@ -2331,16 +2325,16 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="R12" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="S12" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="13" t="s">
@@ -2357,10 +2351,10 @@
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA12" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="AB12" s="13" t="s">
         <v>49</v>
@@ -2378,13 +2372,13 @@
         <v>44105</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
@@ -2397,40 +2391,40 @@
         <v>55</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="Q13" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="R13" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="S13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="T13" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="U13" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="V13" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="W13" s="18">
         <v>2218549</v>
@@ -2440,19 +2434,19 @@
       </c>
       <c r="Y13" s="13"/>
       <c r="Z13" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="AC13" s="13" t="s">
         <v>108</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE13" s="13"/>
     </row>
@@ -2462,10 +2456,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="E14" s="18">
         <v>1976</v>
@@ -2480,16 +2474,16 @@
         <v>85</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>40</v>
@@ -2499,20 +2493,20 @@
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>78</v>
@@ -2528,10 +2522,10 @@
         <v>79</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>50</v>
@@ -2546,13 +2540,13 @@
         <v>44105</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
@@ -2565,40 +2559,40 @@
         <v>55</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="S15" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="W15" s="18">
         <v>7415400</v>
@@ -2608,19 +2602,19 @@
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA15" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AE15" s="15"/>
     </row>
@@ -2629,13 +2623,13 @@
         <v>39546</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
@@ -2651,17 +2645,17 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="R16" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>45</v>
@@ -2680,7 +2674,7 @@
         <v>47</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB16" s="13" t="s">
         <v>49</v>
@@ -2698,13 +2692,13 @@
         <v>40982</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
@@ -2720,13 +2714,13 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="17" t="s">
@@ -2767,13 +2761,13 @@
         <v>42360</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
@@ -2789,23 +2783,23 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V18" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="W18" s="18">
         <v>536768</v>
@@ -2818,13 +2812,13 @@
         <v>106</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD18" s="13" t="s">
         <v>93</v>

--- a/plantillaa.xlsx
+++ b/plantillaa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="238">
   <si>
     <t xml:space="preserve">FECHA DE INCRIPCION </t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>-25.149684</t>
-  </si>
-  <si>
-    <t>57.500706</t>
   </si>
   <si>
     <t>Avenida Costa Azul</t>
@@ -1831,11 +1828,11 @@
       <c r="P6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="16">
+        <v>-57.500706</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="17" t="s">
@@ -1855,19 +1852,19 @@
       </c>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>65</v>
       </c>
       <c r="AB6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AD6" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE6" s="13"/>
     </row>
@@ -1876,13 +1873,13 @@
         <v>40492</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
@@ -1892,19 +1889,19 @@
         <v>54</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>40</v>
@@ -1914,13 +1911,13 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="R7" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="17" t="s">
@@ -1939,13 +1936,13 @@
         <v>5805</v>
       </c>
       <c r="Y7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AA7" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>49</v>
@@ -1954,7 +1951,7 @@
         <v>50</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE7" s="13"/>
     </row>
@@ -1964,10 +1961,10 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
@@ -1977,19 +1974,19 @@
         <v>34</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>40</v>
@@ -1999,17 +1996,17 @@
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="R8" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>77</v>
@@ -2028,13 +2025,13 @@
         <v>79</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>93</v>
@@ -2046,13 +2043,13 @@
         <v>40960</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="E9" s="18">
         <v>1975</v>
@@ -2064,19 +2061,19 @@
         <v>34</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>40</v>
@@ -2086,23 +2083,23 @@
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="R9" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="V9" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="W9" s="18">
         <v>2948269</v>
@@ -2112,19 +2109,19 @@
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA9" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE9" s="13"/>
     </row>
@@ -2133,13 +2130,13 @@
         <v>40070</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="E10" s="18">
         <v>1965</v>
@@ -2148,38 +2145,38 @@
         <v>99</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="R10" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>45</v>
@@ -2195,19 +2192,19 @@
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA10" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD10" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE10" s="13"/>
     </row>
@@ -2216,13 +2213,13 @@
         <v>44321</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="E11" s="22">
         <v>1952</v>
@@ -2240,13 +2237,13 @@
         <v>86</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>40</v>
@@ -2256,16 +2253,16 @@
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="R11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="S11" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="T11" s="28">
         <v>44398</v>
@@ -2274,7 +2271,7 @@
         <v>77</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W11" s="29">
         <v>2679240</v>
@@ -2284,16 +2281,16 @@
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA11" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AB11" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC11" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="AD11" s="27"/>
       <c r="AE11" s="13"/>
@@ -2303,13 +2300,13 @@
         <v>43194</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
@@ -2325,16 +2322,16 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="R12" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="S12" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="13" t="s">
@@ -2351,16 +2348,16 @@
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="AB12" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>93</v>
@@ -2372,59 +2369,59 @@
         <v>44105</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="Q13" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="R13" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="S13" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="T13" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="U13" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="V13" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="W13" s="18">
         <v>2218549</v>
@@ -2434,19 +2431,19 @@
       </c>
       <c r="Y13" s="13"/>
       <c r="Z13" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA13" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD13" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD13" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="AE13" s="13"/>
     </row>
@@ -2456,10 +2453,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="E14" s="18">
         <v>1976</v>
@@ -2468,22 +2465,22 @@
         <v>33</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>40</v>
@@ -2493,20 +2490,20 @@
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="R14" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>78</v>
@@ -2522,10 +2519,10 @@
         <v>79</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="AB14" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>50</v>
@@ -2540,59 +2537,59 @@
         <v>44105</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q15" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="R15" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="S15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V15" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="W15" s="18">
         <v>7415400</v>
@@ -2602,19 +2599,19 @@
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA15" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="AB15" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="AC15" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE15" s="15"/>
     </row>
@@ -2623,13 +2620,13 @@
         <v>39546</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
@@ -2645,17 +2642,17 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q16" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R16" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>45</v>
@@ -2674,16 +2671,16 @@
         <v>47</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB16" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD16" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE16" s="13"/>
     </row>
@@ -2692,13 +2689,13 @@
         <v>40982</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
@@ -2714,13 +2711,13 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q17" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="R17" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="17" t="s">
@@ -2761,13 +2758,13 @@
         <v>42360</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
@@ -2783,23 +2780,23 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q18" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="R18" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U18" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="V18" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="W18" s="18">
         <v>536768</v>
@@ -2809,16 +2806,16 @@
       </c>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD18" s="13" t="s">
         <v>93</v>
